--- a/quizzes/exam/Midterm score.xlsx
+++ b/quizzes/exam/Midterm score.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="0" windowWidth="18684" windowHeight="9912" activeTab="1"/>
+    <workbookView xWindow="1800" yWindow="0" windowWidth="18684" windowHeight="9912" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="314">
   <si>
     <t>Course Code</t>
   </si>
@@ -964,11 +964,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UIN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
+    <t>All</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1357,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3472,7 +3468,7 @@
         <v>49</v>
       </c>
       <c r="K60" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -6459,8 +6455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="P123" sqref="P123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6476,412 +6472,826 @@
         <v>312</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" t="s">
-        <v>314</v>
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
       </c>
       <c r="I2" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
       <c r="I3" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
       <c r="I4" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
       <c r="I5" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
       <c r="I6" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
       <c r="I7" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
       <c r="I8" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
       <c r="I9" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
       <c r="I10" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
       <c r="I11" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
       <c r="I12" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
       <c r="I13" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
       <c r="I14" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
       <c r="I15" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
       <c r="I16" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
       <c r="I17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
       <c r="I18" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
       <c r="I19" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
       <c r="I20" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
       <c r="I21" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
       <c r="I22" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
       <c r="I23" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
       <c r="I24" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
       <c r="I25" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
       <c r="I26" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
       <c r="I27" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
       <c r="I28" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
       <c r="I29" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
       <c r="I30" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>22</v>
+      </c>
       <c r="I31" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
       <c r="I32" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
       <c r="I33" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
       <c r="I34" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
       <c r="I35" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
       <c r="I36" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>14</v>
+      </c>
       <c r="I37" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
       <c r="I38" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
       <c r="I39" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>19</v>
+      </c>
       <c r="I40" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>17</v>
+      </c>
       <c r="I41" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>14</v>
+      </c>
       <c r="I42" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
       <c r="I43" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
+      </c>
       <c r="I44" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
       <c r="I45" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
       <c r="I46" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
       <c r="I47" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
       <c r="I48" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
       <c r="I49" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>15</v>
+      </c>
       <c r="I50" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>13</v>
+      </c>
       <c r="I51" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>13</v>
+      </c>
       <c r="I52" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>14</v>
+      </c>
       <c r="I53" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="E54">
+        <v>15</v>
+      </c>
       <c r="I54" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
       <c r="I55" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>19</v>
+      </c>
       <c r="I56" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
       <c r="I57" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
       <c r="I58" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
       <c r="I59" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>15</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
       <c r="I60" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
       <c r="I61" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>14</v>
+      </c>
       <c r="I62" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>17</v>
+      </c>
       <c r="I63" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>26</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
       <c r="I64" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>14</v>
+      </c>
       <c r="I65" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
       <c r="I66" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>17</v>
+      </c>
       <c r="I67" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
       <c r="I68" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
+      </c>
       <c r="I69" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
       <c r="I70" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>21</v>
+      </c>
       <c r="I71" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>17</v>
+      </c>
       <c r="I72" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>11</v>
+      </c>
       <c r="I73" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>20</v>
+      </c>
       <c r="I74" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I75" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I76" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I77" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I78" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I79" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I80" s="4">
         <v>16</v>
       </c>
